--- a/xlsx/联系汇率制_intext.xlsx
+++ b/xlsx/联系汇率制_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>联系汇率制</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E5%8C%AF%E7%8E%87%E5%88%B6</t>
   </si>
   <si>
-    <t>固定匯率制</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_联系汇率制</t>
+    <t>固定汇率制</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_联系汇率制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%B9%A3</t>
   </si>
   <si>
-    <t>外幣</t>
+    <t>外币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E7%8E%87</t>
   </si>
   <si>
-    <t>匯率</t>
+    <t>汇率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E5%8F%91%E8%A1%8C%E9%87%8F</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%81%AF%E7%B9%AB%E5%8C%AF%E7%8E%87%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>香港聯繫匯率制度</t>
+    <t>香港联系汇率制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>貨幣政策</t>
+    <t>货币政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -119,9 +119,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%85%83%E5%8C%BA</t>
   </si>
   <si>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E7%9B%A7%E5%B8%83</t>
   </si>
   <si>
-    <t>白俄羅斯盧布</t>
+    <t>白俄罗斯卢布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%87%91%E8%9E%8D%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -143,9 +140,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
   </si>
   <si>
@@ -155,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
+    <t>爱沙尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E9%A6%AC%E5%85%8B</t>
   </si>
   <si>
-    <t>德國馬克</t>
+    <t>德国马克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -173,27 +167,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80</t>
   </si>
   <si>
-    <t>直布羅陀</t>
+    <t>直布罗陀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B5%AB%E5%8B%92%E6%8B%BF%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖赫勒拿島</t>
+    <t>圣赫勒拿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%8E%8A</t>
   </si>
   <si>
-    <t>英鎊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9C%AC%E4%BD%8D</t>
   </si>
   <si>
@@ -203,13 +194,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E5%88%97%E5%BC%97</t>
   </si>
   <si>
-    <t>保加利亞列弗</t>
+    <t>保加利亚列弗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E5%85%8B%E6%9C%97</t>
   </si>
   <si>
-    <t>愛沙尼亞克朗</t>
+    <t>爱沙尼亚克朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3%E5%8F%AF%E5%85%91%E6%8D%A2%E9%A9%AC%E5%85%8B</t>
@@ -257,13 +248,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94%E5%85%83</t>
   </si>
   <si>
-    <t>百慕達元</t>
+    <t>百慕达元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6%E5%85%83</t>
   </si>
   <si>
-    <t>開曼群島元</t>
+    <t>开曼群岛元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0%E6%B3%95%E9%83%8E</t>
@@ -275,19 +266,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8A%A0%E5%8B%92%E6%AF%94%E5%85%83</t>
   </si>
   <si>
-    <t>東加勒比元</t>
+    <t>东加勒比元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E9%8E%8A</t>
   </si>
   <si>
-    <t>直布羅陀鎊</t>
+    <t>直布罗陀镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6%E9%8E%8A</t>
   </si>
   <si>
-    <t>福克蘭群島鎊</t>
+    <t>福克兰群岛镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%8B%92%E6%8B%BF%E9%95%91</t>
@@ -299,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A%E5%85%83</t>
   </si>
   <si>
-    <t>汶萊元</t>
+    <t>汶莱元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%85%83</t>
@@ -311,27 +302,24 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%85%83</t>
   </si>
   <si>
-    <t>澳門元</t>
+    <t>澳门元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6%E5%85%8B%E6%9C%97</t>
   </si>
   <si>
-    <t>法羅群島克朗</t>
+    <t>法罗群岛克朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%85%8B%E6%9C%97</t>
   </si>
   <si>
-    <t>丹麥克朗</t>
+    <t>丹麦克朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%87%E7%8E%87</t>
   </si>
   <si>
-    <t>汇率</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%98%93%E8%B4%B9%E7%94%A8</t>
   </si>
   <si>
@@ -351,9 +339,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>货币政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8A%A8%E6%80%A7</t>
@@ -1239,7 +1224,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
         <v>9</v>
@@ -1265,10 +1250,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1294,10 +1279,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1323,10 +1308,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1381,10 +1366,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1410,10 +1395,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1439,10 +1424,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1468,10 +1453,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1497,10 +1482,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1526,10 +1511,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1555,10 +1540,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1584,10 +1569,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1613,10 +1598,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1642,10 +1627,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1671,10 +1656,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1700,10 +1685,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1729,10 +1714,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1758,10 +1743,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1787,10 +1772,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1816,10 +1801,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1845,10 +1830,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1874,10 +1859,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1903,10 +1888,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -1932,10 +1917,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1961,10 +1946,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1990,10 +1975,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2019,10 +2004,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2048,10 +2033,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2077,10 +2062,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2106,10 +2091,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2135,10 +2120,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2164,10 +2149,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2193,10 +2178,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2222,10 +2207,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2251,10 +2236,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2280,10 +2265,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="G53" t="n">
         <v>16</v>
@@ -2309,10 +2294,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2338,10 +2323,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2367,10 +2352,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2396,10 +2381,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2425,10 +2410,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2454,10 +2439,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2483,10 +2468,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2512,10 +2497,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2541,10 +2526,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2570,10 +2555,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2599,10 +2584,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2657,10 +2642,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2686,10 +2671,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F67" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
